--- a/converter/data/xlsx/24.9._BSMJENA.XLSX
+++ b/converter/data/xlsx/24.9._BSMJENA.XLSX
@@ -339,9 +339,6 @@
     <t>1CE</t>
   </si>
   <si>
-    <t>Povijest hrvatske kult. Baštine</t>
-  </si>
-  <si>
     <t>Zlatan Latin</t>
   </si>
   <si>
@@ -412,6 +409,9 @@
   </si>
   <si>
     <t>Marin Horvat</t>
+  </si>
+  <si>
+    <t>Jelena Maksić Gudek</t>
   </si>
 </sst>
 </file>
@@ -3426,6 +3426,18 @@
     <xf numFmtId="0" fontId="28" fillId="28" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3449,18 +3461,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4038,7 +4038,7 @@
   <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4069,94 +4069,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="469" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="469"/>
-      <c r="C1" s="469"/>
-      <c r="D1" s="469"/>
-      <c r="E1" s="469"/>
-      <c r="F1" s="469"/>
-      <c r="G1" s="469"/>
-      <c r="H1" s="469"/>
-      <c r="I1" s="469"/>
-      <c r="J1" s="469"/>
-      <c r="K1" s="469"/>
-      <c r="L1" s="469"/>
-      <c r="M1" s="469"/>
-      <c r="N1" s="469"/>
-      <c r="O1" s="469"/>
-      <c r="P1" s="469"/>
-      <c r="Q1" s="469"/>
-      <c r="R1" s="469"/>
-      <c r="S1" s="469"/>
-      <c r="T1" s="469"/>
-      <c r="U1" s="469"/>
-      <c r="V1" s="469"/>
-      <c r="W1" s="469"/>
-      <c r="X1" s="469"/>
-      <c r="Y1" s="469"/>
-      <c r="Z1" s="469"/>
-      <c r="AA1" s="469"/>
-      <c r="AB1" s="469"/>
-      <c r="AC1" s="469"/>
-      <c r="AD1" s="469"/>
-      <c r="AE1" s="469"/>
-      <c r="AF1" s="469"/>
-      <c r="AG1" s="469"/>
-      <c r="AH1" s="469"/>
-      <c r="AI1" s="469"/>
-      <c r="AJ1" s="469"/>
+      <c r="A1" s="473" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="473"/>
+      <c r="C1" s="473"/>
+      <c r="D1" s="473"/>
+      <c r="E1" s="473"/>
+      <c r="F1" s="473"/>
+      <c r="G1" s="473"/>
+      <c r="H1" s="473"/>
+      <c r="I1" s="473"/>
+      <c r="J1" s="473"/>
+      <c r="K1" s="473"/>
+      <c r="L1" s="473"/>
+      <c r="M1" s="473"/>
+      <c r="N1" s="473"/>
+      <c r="O1" s="473"/>
+      <c r="P1" s="473"/>
+      <c r="Q1" s="473"/>
+      <c r="R1" s="473"/>
+      <c r="S1" s="473"/>
+      <c r="T1" s="473"/>
+      <c r="U1" s="473"/>
+      <c r="V1" s="473"/>
+      <c r="W1" s="473"/>
+      <c r="X1" s="473"/>
+      <c r="Y1" s="473"/>
+      <c r="Z1" s="473"/>
+      <c r="AA1" s="473"/>
+      <c r="AB1" s="473"/>
+      <c r="AC1" s="473"/>
+      <c r="AD1" s="473"/>
+      <c r="AE1" s="473"/>
+      <c r="AF1" s="473"/>
+      <c r="AG1" s="473"/>
+      <c r="AH1" s="473"/>
+      <c r="AI1" s="473"/>
+      <c r="AJ1" s="473"/>
     </row>
     <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="470" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="474" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="471"/>
-      <c r="D2" s="471"/>
-      <c r="E2" s="471"/>
-      <c r="F2" s="471"/>
-      <c r="G2" s="471"/>
-      <c r="H2" s="472"/>
-      <c r="I2" s="473" t="s">
+      <c r="C2" s="475"/>
+      <c r="D2" s="475"/>
+      <c r="E2" s="475"/>
+      <c r="F2" s="475"/>
+      <c r="G2" s="475"/>
+      <c r="H2" s="476"/>
+      <c r="I2" s="477" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="471"/>
-      <c r="K2" s="471"/>
-      <c r="L2" s="471"/>
-      <c r="M2" s="471"/>
-      <c r="N2" s="471"/>
-      <c r="O2" s="472"/>
-      <c r="P2" s="470" t="s">
+      <c r="J2" s="475"/>
+      <c r="K2" s="475"/>
+      <c r="L2" s="475"/>
+      <c r="M2" s="475"/>
+      <c r="N2" s="475"/>
+      <c r="O2" s="476"/>
+      <c r="P2" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="471"/>
-      <c r="R2" s="471"/>
-      <c r="S2" s="471"/>
-      <c r="T2" s="471"/>
-      <c r="U2" s="471"/>
-      <c r="V2" s="472"/>
-      <c r="W2" s="473" t="s">
+      <c r="Q2" s="475"/>
+      <c r="R2" s="475"/>
+      <c r="S2" s="475"/>
+      <c r="T2" s="475"/>
+      <c r="U2" s="475"/>
+      <c r="V2" s="476"/>
+      <c r="W2" s="477" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="471"/>
-      <c r="Y2" s="471"/>
-      <c r="Z2" s="471"/>
-      <c r="AA2" s="471"/>
-      <c r="AB2" s="471"/>
-      <c r="AC2" s="472"/>
-      <c r="AD2" s="474" t="s">
+      <c r="X2" s="475"/>
+      <c r="Y2" s="475"/>
+      <c r="Z2" s="475"/>
+      <c r="AA2" s="475"/>
+      <c r="AB2" s="475"/>
+      <c r="AC2" s="476"/>
+      <c r="AD2" s="478" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="475"/>
-      <c r="AF2" s="475"/>
-      <c r="AG2" s="475"/>
-      <c r="AH2" s="475"/>
-      <c r="AI2" s="475"/>
-      <c r="AJ2" s="476"/>
+      <c r="AE2" s="479"/>
+      <c r="AF2" s="479"/>
+      <c r="AG2" s="479"/>
+      <c r="AH2" s="479"/>
+      <c r="AI2" s="479"/>
+      <c r="AJ2" s="480"/>
     </row>
     <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -4301,13 +4301,13 @@
       <c r="AB4" s="27"/>
       <c r="AC4" s="134"/>
       <c r="AD4" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE4" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF4" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG4" s="27"/>
       <c r="AH4" s="27"/>
@@ -4322,7 +4322,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="72" t="s">
         <v>89</v>
@@ -4340,10 +4340,10 @@
         <v>91</v>
       </c>
       <c r="I5" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>70</v>
@@ -4404,10 +4404,10 @@
       <c r="C6" s="83"/>
       <c r="D6" s="83"/>
       <c r="E6" s="83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="83" t="s">
         <v>68</v>
@@ -4429,19 +4429,19 @@
       <c r="N6" s="12"/>
       <c r="O6" s="26"/>
       <c r="P6" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="Q6" s="37" t="s">
+      <c r="S6" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="S6" s="37" t="s">
-        <v>100</v>
-      </c>
       <c r="T6" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U6" s="37" t="s">
         <v>71</v>
@@ -4450,20 +4450,20 @@
         <v>71</v>
       </c>
       <c r="W6" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="X6" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y6" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="X6" s="37" t="s">
+      <c r="Z6" s="37" t="s">
         <v>99</v>
-      </c>
-      <c r="Y6" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z6" s="37" t="s">
-        <v>100</v>
       </c>
       <c r="AA6" s="37"/>
       <c r="AB6" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC6" s="84"/>
       <c r="AD6" s="36"/>
@@ -4485,22 +4485,22 @@
       <c r="F7" s="75"/>
       <c r="G7" s="75"/>
       <c r="H7" s="76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="25" t="s">
-        <v>106</v>
-      </c>
       <c r="N7" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O7" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="25"/>
@@ -4512,26 +4512,26 @@
       <c r="W7" s="28"/>
       <c r="X7" s="25"/>
       <c r="Y7" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z7" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA7" s="25"/>
       <c r="AB7" s="290" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC7" s="291" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD7" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF7" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="AC7" s="291" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD7" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE7" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF7" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
@@ -4543,7 +4543,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="229" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="69" t="s">
         <v>70</v>
@@ -4555,19 +4555,19 @@
         <v>68</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="77" t="s">
         <v>69</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
@@ -4595,7 +4595,7 @@
       <c r="AB8" s="12"/>
       <c r="AC8" s="26"/>
       <c r="AD8" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE8" s="12" t="s">
         <v>69</v>
@@ -4623,26 +4623,26 @@
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
       <c r="F9" s="72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>90</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="26"/>
@@ -4661,13 +4661,13 @@
       <c r="AB9" s="12"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE9" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF9" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG9" s="12"/>
       <c r="AH9" s="12" t="s">
@@ -4695,24 +4695,24 @@
         <v>68</v>
       </c>
       <c r="F10" s="307" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="307" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10" s="73"/>
       <c r="I10" s="308" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J10" s="306" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K10" s="308" t="s">
         <v>90</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="308" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="26"/>
@@ -4737,13 +4737,13 @@
       <c r="AB10" s="34"/>
       <c r="AC10" s="26"/>
       <c r="AD10" s="306" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE10" s="308" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF10" s="308" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG10" s="310" t="s">
         <v>71</v>
@@ -4764,13 +4764,13 @@
       </c>
       <c r="B11" s="236"/>
       <c r="C11" s="90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="311" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="79"/>
       <c r="G11" s="79"/>
@@ -4781,29 +4781,29 @@
       <c r="L11" s="81"/>
       <c r="M11" s="34"/>
       <c r="N11" s="81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
       <c r="S11" s="40"/>
       <c r="T11" s="356" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U11" s="356" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V11" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W11" s="313" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X11" s="314" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y11" s="40"/>
       <c r="Z11" s="40"/>
@@ -4851,7 +4851,7 @@
       <c r="AB12" s="25"/>
       <c r="AC12" s="42"/>
       <c r="AD12" s="461" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE12" s="25" t="s">
         <v>90</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="14" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="69"/>
@@ -4953,12 +4953,8 @@
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
-      <c r="AA14" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB14" s="12" t="s">
-        <v>99</v>
-      </c>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
       <c r="AC14" s="26"/>
       <c r="AD14" s="22"/>
       <c r="AE14" s="12"/>
@@ -5014,7 +5010,7 @@
     </row>
     <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="72"/>
@@ -5041,8 +5037,12 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="166"/>
       <c r="Z16" s="166"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
+      <c r="AA16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="AC16" s="26"/>
       <c r="AD16" s="22"/>
       <c r="AE16" s="22"/>
@@ -5083,7 +5083,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="265"/>
       <c r="V17" s="309" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W17" s="33"/>
       <c r="X17" s="12"/>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="Z17" s="12"/>
       <c r="AA17" s="308" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB17" s="308" t="s">
         <v>91</v>
@@ -5117,7 +5117,7 @@
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="E18" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="72" t="s">
         <v>68</v>
@@ -5142,7 +5142,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W18" s="33"/>
       <c r="X18" s="12"/>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB18" s="12" t="s">
         <v>91</v>
@@ -5191,19 +5191,19 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="U19" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="V19" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="U19" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="V19" s="26" t="s">
-        <v>100</v>
-      </c>
       <c r="W19" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X19" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y19" s="12" t="s">
         <v>90</v>
@@ -5212,7 +5212,7 @@
         <v>90</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB19" s="12"/>
       <c r="AC19" s="26"/>
@@ -5223,7 +5223,7 @@
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK19" s="115"/>
     </row>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="71"/>
       <c r="C21" s="72"/>
@@ -5335,7 +5335,7 @@
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
       <c r="O22" s="159" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P22" s="81" t="s">
         <v>90</v>
@@ -5344,10 +5344,10 @@
         <v>90</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S22" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T22" s="34"/>
       <c r="U22" s="34"/>
@@ -5366,7 +5366,7 @@
       <c r="AH22" s="114"/>
       <c r="AI22" s="34"/>
       <c r="AJ22" s="468" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK22" s="115"/>
     </row>
@@ -5379,20 +5379,20 @@
       <c r="D23" s="75"/>
       <c r="E23" s="75"/>
       <c r="F23" s="75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="75"/>
       <c r="H23" s="76"/>
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N23" s="25"/>
       <c r="O23" s="42"/>
@@ -5402,14 +5402,14 @@
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V23" s="42"/>
       <c r="W23" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X23" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
@@ -5422,7 +5422,7 @@
       <c r="AG23" s="25"/>
       <c r="AH23" s="25"/>
       <c r="AI23" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ23" s="43"/>
       <c r="AK23" s="115"/>
@@ -5438,7 +5438,7 @@
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
       <c r="G24" s="72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="73"/>
       <c r="I24" s="11"/>
@@ -5457,10 +5457,10 @@
         <v>70</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q24" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R24" s="40" t="s">
         <v>69</v>
@@ -5472,7 +5472,7 @@
         <v>69</v>
       </c>
       <c r="U24" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V24" s="46"/>
       <c r="W24" s="47"/>
@@ -5482,7 +5482,7 @@
       <c r="AA24" s="40"/>
       <c r="AB24" s="40"/>
       <c r="AC24" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD24" s="11" t="s">
         <v>70</v>
@@ -5494,10 +5494,10 @@
         <v>70</v>
       </c>
       <c r="AG24" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH24" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI24" s="40"/>
       <c r="AJ24" s="29"/>
@@ -5508,13 +5508,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="79"/>
       <c r="F25" s="79"/>
@@ -5576,14 +5576,14 @@
         <v>76</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="79"/>
       <c r="E26" s="79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="79"/>
       <c r="G26" s="79"/>
@@ -5593,10 +5593,10 @@
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
       <c r="M26" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N26" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O26" s="46"/>
       <c r="P26" s="11" t="s">
@@ -5606,10 +5606,10 @@
         <v>91</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S26" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T26" s="40"/>
       <c r="U26" s="40" t="s">
@@ -5628,10 +5628,10 @@
       </c>
       <c r="AC26" s="46"/>
       <c r="AD26" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE26" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF26" s="40" t="s">
         <v>91</v>
@@ -5641,10 +5641,10 @@
       </c>
       <c r="AH26" s="40"/>
       <c r="AI26" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ26" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AL26" s="115"/>
     </row>
@@ -5778,13 +5778,13 @@
         <v>42</v>
       </c>
       <c r="B29" s="343" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="344" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="344" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="165"/>
       <c r="F29" s="165"/>
@@ -5798,13 +5798,13 @@
       <c r="N29" s="55"/>
       <c r="O29" s="56"/>
       <c r="P29" s="103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q29" s="103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R29" s="55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S29" s="55" t="s">
         <v>89</v>
@@ -5813,46 +5813,46 @@
         <v>89</v>
       </c>
       <c r="U29" s="241" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V29" s="354" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W29" s="453" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X29" s="454" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y29" s="454" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z29" s="55" t="s">
         <v>89</v>
       </c>
       <c r="AA29" s="241"/>
       <c r="AB29" s="434" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC29" s="435" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD29" s="212"/>
       <c r="AE29" s="213"/>
       <c r="AF29" s="447" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG29" s="446" t="s">
         <v>105</v>
       </c>
-      <c r="AG29" s="446" t="s">
-        <v>106</v>
-      </c>
       <c r="AH29" s="446" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI29" s="448" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ29" s="187" t="s">
         <v>105</v>
-      </c>
-      <c r="AJ29" s="187" t="s">
-        <v>106</v>
       </c>
       <c r="AK29" s="254"/>
       <c r="AL29" s="254"/>
@@ -5862,13 +5862,13 @@
         <v>43</v>
       </c>
       <c r="B30" s="359" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="360" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="360" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="69"/>
       <c r="F30" s="69"/>
@@ -5913,7 +5913,7 @@
         <v>89</v>
       </c>
       <c r="AI30" s="118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ30" s="324"/>
       <c r="AK30" s="255"/>
@@ -5947,10 +5947,10 @@
       <c r="Q31" s="22"/>
       <c r="R31" s="12"/>
       <c r="S31" s="348" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T31" s="348" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U31" s="22"/>
       <c r="V31" s="26"/>
@@ -5958,10 +5958,10 @@
       <c r="X31" s="166"/>
       <c r="Y31" s="166"/>
       <c r="Z31" s="348" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA31" s="349" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB31" s="12"/>
       <c r="AC31" s="26"/>
@@ -5969,10 +5969,10 @@
       <c r="AE31" s="12"/>
       <c r="AF31" s="49"/>
       <c r="AG31" s="350" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AH31" s="350" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI31" s="12"/>
       <c r="AJ31" s="324"/>
@@ -6025,21 +6025,21 @@
       </c>
       <c r="R32" s="119"/>
       <c r="S32" s="233" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T32" s="233" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U32" s="143"/>
       <c r="V32" s="144"/>
       <c r="W32" s="345" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X32" s="346" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y32" s="346" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z32" s="119" t="s">
         <v>91</v>
@@ -6048,21 +6048,21 @@
         <v>91</v>
       </c>
       <c r="AB32" s="233" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC32" s="338" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD32" s="355"/>
       <c r="AE32" s="242"/>
       <c r="AF32" s="347" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG32" s="242" t="s">
         <v>105</v>
       </c>
-      <c r="AG32" s="242" t="s">
-        <v>106</v>
-      </c>
       <c r="AH32" s="242" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI32" s="146"/>
       <c r="AJ32" s="147"/>
@@ -6079,10 +6079,10 @@
       <c r="D33" s="69"/>
       <c r="E33" s="342"/>
       <c r="F33" s="374" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G33" s="375" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H33" s="462"/>
       <c r="I33" s="152"/>
@@ -6093,10 +6093,10 @@
         <v>70</v>
       </c>
       <c r="N33" s="382" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="464" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P33" s="22"/>
       <c r="Q33" s="166"/>
@@ -6106,10 +6106,10 @@
       <c r="U33" s="49"/>
       <c r="V33" s="357"/>
       <c r="W33" s="393" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X33" s="394" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y33" s="12" t="s">
         <v>68</v>
@@ -6165,10 +6165,10 @@
       <c r="I34" s="220"/>
       <c r="J34" s="186"/>
       <c r="K34" s="301" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L34" s="301" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M34" s="114"/>
       <c r="N34" s="114"/>
@@ -6211,7 +6211,7 @@
         <v>88</v>
       </c>
       <c r="AG34" s="441" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH34" s="282" t="s">
         <v>68</v>
@@ -6220,7 +6220,7 @@
         <v>68</v>
       </c>
       <c r="AJ34" s="450" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK34" s="163" t="s">
         <v>53</v>
@@ -6347,10 +6347,10 @@
       <c r="B37" s="243"/>
       <c r="C37" s="234"/>
       <c r="D37" s="376" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" s="377" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F37" s="235"/>
       <c r="G37" s="268"/>
@@ -6361,7 +6361,7 @@
       <c r="L37" s="270"/>
       <c r="M37" s="293"/>
       <c r="N37" s="272" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O37" s="191"/>
       <c r="P37" s="11"/>
@@ -6372,10 +6372,10 @@
       <c r="U37" s="40"/>
       <c r="V37" s="46"/>
       <c r="W37" s="351" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X37" s="192" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y37" s="40"/>
       <c r="Z37" s="171"/>
@@ -6387,7 +6387,7 @@
       <c r="AF37" s="40"/>
       <c r="AG37" s="192"/>
       <c r="AH37" s="439" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI37" s="167"/>
       <c r="AJ37" s="219"/>
@@ -6405,31 +6405,31 @@
       <c r="E38" s="79"/>
       <c r="F38" s="79"/>
       <c r="G38" s="432" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H38" s="325"/>
       <c r="I38" s="11"/>
       <c r="J38" s="40"/>
       <c r="K38" s="50"/>
       <c r="L38" s="186" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M38" s="220"/>
       <c r="N38" s="433" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O38" s="463" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P38" s="194"/>
       <c r="Q38" s="192"/>
       <c r="R38" s="192"/>
       <c r="S38" s="167"/>
       <c r="T38" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U38" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V38" s="451" t="s">
         <v>88</v>
@@ -6445,16 +6445,16 @@
       <c r="AE38" s="40"/>
       <c r="AF38" s="40"/>
       <c r="AG38" s="439" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH38" s="442" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI38" s="439" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ38" s="440" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK38" s="164" t="s">
         <v>54</v>
@@ -6522,16 +6522,16 @@
         <v>88</v>
       </c>
       <c r="D40" s="431" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="431" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="431" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G40" s="263" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H40" s="465" t="s">
         <v>88</v>
@@ -6543,7 +6543,7 @@
         <v>88</v>
       </c>
       <c r="K40" s="383" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L40" s="304" t="s">
         <v>68</v>
@@ -6565,10 +6565,10 @@
       <c r="U40" s="25"/>
       <c r="V40" s="24"/>
       <c r="W40" s="396" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X40" s="397" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y40" s="207"/>
       <c r="Z40" s="264" t="s">
@@ -6587,16 +6587,16 @@
       <c r="AE40" s="110"/>
       <c r="AF40" s="110"/>
       <c r="AG40" s="110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH40" s="110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI40" s="185" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ40" s="352" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK40" s="163"/>
     </row>
@@ -6765,82 +6765,82 @@
         <v>71</v>
       </c>
       <c r="D43" s="419" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" s="419" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" s="419" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G43" s="79"/>
       <c r="H43" s="73"/>
       <c r="I43" s="11"/>
       <c r="J43" s="40"/>
       <c r="K43" s="384" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L43" s="384" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M43" s="167"/>
       <c r="N43" s="387" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O43" s="388" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P43" s="11"/>
       <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
       <c r="S43" s="389" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T43" s="389" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U43" s="390" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V43" s="388" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W43" s="414" t="s">
+        <v>104</v>
+      </c>
+      <c r="X43" s="415" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y43" s="416" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z43" s="412" t="s">
         <v>105</v>
       </c>
-      <c r="X43" s="415" t="s">
+      <c r="AA43" s="389" t="s">
         <v>105</v>
       </c>
-      <c r="Y43" s="416" t="s">
+      <c r="AB43" s="387" t="s">
         <v>105</v>
       </c>
-      <c r="Z43" s="412" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA43" s="389" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB43" s="387" t="s">
-        <v>106</v>
-      </c>
       <c r="AC43" s="413" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD43" s="11" t="s">
         <v>71</v>
       </c>
       <c r="AE43" s="170"/>
       <c r="AF43" s="391" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG43" s="392" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH43" s="170" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI43" s="428" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ43" s="53"/>
     </row>
@@ -6866,10 +6866,10 @@
       <c r="Q44" s="40"/>
       <c r="R44" s="40"/>
       <c r="S44" s="405" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T44" s="405" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U44" s="300" t="s">
         <v>90</v>
@@ -6882,13 +6882,13 @@
       <c r="Y44" s="158"/>
       <c r="Z44" s="40"/>
       <c r="AA44" s="405" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB44" s="417" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC44" s="418" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="45" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" s="78"/>
       <c r="C45" s="79"/>
@@ -6919,10 +6919,10 @@
       <c r="L45" s="40"/>
       <c r="M45" s="40"/>
       <c r="N45" s="385" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O45" s="386" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P45" s="11"/>
       <c r="Q45" s="40"/>
@@ -6942,10 +6942,10 @@
       <c r="AE45" s="11"/>
       <c r="AF45" s="167"/>
       <c r="AG45" s="426" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH45" s="427" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI45" s="167">
         <v>57</v>
@@ -6980,10 +6980,10 @@
       <c r="S46" s="207"/>
       <c r="T46" s="185"/>
       <c r="U46" s="437" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V46" s="438" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W46" s="406" t="s">
         <v>71</v>
@@ -6993,10 +6993,10 @@
       </c>
       <c r="Y46" s="25"/>
       <c r="Z46" s="436" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA46" s="207" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB46" s="25"/>
       <c r="AC46" s="42"/>
@@ -7081,7 +7081,7 @@
       <c r="M48" s="34"/>
       <c r="N48" s="34"/>
       <c r="O48" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P48" s="132"/>
       <c r="Q48" s="166"/>
@@ -7096,10 +7096,10 @@
       <c r="Z48" s="34"/>
       <c r="AA48" s="34"/>
       <c r="AB48" s="317" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC48" s="323" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD48" s="132"/>
       <c r="AE48" s="114"/>
@@ -7150,10 +7150,10 @@
       <c r="W49" s="28"/>
       <c r="X49" s="25"/>
       <c r="Y49" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z49" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA49" s="25"/>
       <c r="AB49" s="25"/>
@@ -7162,10 +7162,10 @@
       <c r="AE49" s="25"/>
       <c r="AF49" s="121"/>
       <c r="AG49" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AH49" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI49" s="443" t="s">
         <v>90</v>
@@ -7179,7 +7179,7 @@
     </row>
     <row r="50" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="334" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" s="335"/>
       <c r="C50" s="336"/>
@@ -7194,20 +7194,20 @@
       <c r="L50" s="333"/>
       <c r="M50" s="37"/>
       <c r="N50" s="333" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O50" s="341" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P50" s="36"/>
       <c r="Q50" s="37"/>
       <c r="R50" s="37"/>
       <c r="S50" s="37"/>
       <c r="T50" s="452" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U50" s="452" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V50" s="341"/>
       <c r="W50" s="39"/>
@@ -7256,13 +7256,13 @@
         <v>69</v>
       </c>
       <c r="P51" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q51" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="R51" s="55" t="s">
         <v>98</v>
-      </c>
-      <c r="Q51" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="R51" s="55" t="s">
-        <v>99</v>
       </c>
       <c r="S51" s="55" t="s">
         <v>71</v>
@@ -7283,14 +7283,14 @@
       <c r="AA51" s="55"/>
       <c r="AB51" s="55"/>
       <c r="AC51" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD51" s="103"/>
       <c r="AE51" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF51" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG51" s="55"/>
       <c r="AH51" s="55"/>
@@ -7308,12 +7308,12 @@
       <c r="F52" s="72"/>
       <c r="G52" s="72"/>
       <c r="H52" s="73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I52" s="81"/>
       <c r="J52" s="34"/>
       <c r="K52" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L52" s="34" t="s">
         <v>90</v>
@@ -7326,19 +7326,19 @@
         <v>89</v>
       </c>
       <c r="P52" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q52" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R52" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S52" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T52" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U52" s="34"/>
       <c r="V52" s="30" t="s">
@@ -7351,14 +7351,14 @@
       <c r="AA52" s="34"/>
       <c r="AB52" s="34"/>
       <c r="AC52" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD52" s="81"/>
       <c r="AE52" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF52" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG52" s="34"/>
       <c r="AH52" s="34"/>
@@ -7370,16 +7370,16 @@
         <v>72</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53" s="75" t="s">
         <v>91</v>
@@ -7389,16 +7389,16 @@
       </c>
       <c r="H53" s="80"/>
       <c r="I53" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K53" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L53" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M53" s="25"/>
       <c r="N53" s="25"/>
@@ -7467,10 +7467,10 @@
         <v>90</v>
       </c>
       <c r="U54" s="404" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V54" s="404" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W54" s="237" t="s">
         <v>90</v>
@@ -7479,10 +7479,10 @@
         <v>90</v>
       </c>
       <c r="Y54" s="402" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z54" s="402" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA54" s="123" t="s">
         <v>90</v>
@@ -7493,19 +7493,19 @@
         <v>90</v>
       </c>
       <c r="AE54" s="402" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF54" s="402" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG54" s="402" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH54" s="402" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AI54" s="273" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AJ54" s="274"/>
       <c r="AK54" s="115"/>
@@ -7597,25 +7597,25 @@
       </c>
       <c r="F56" s="101"/>
       <c r="G56" s="86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H56" s="106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I56" s="102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J56" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L56" s="184" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M56" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N56" s="317" t="s">
         <v>90</v>
@@ -7624,13 +7624,13 @@
         <v>90</v>
       </c>
       <c r="P56" s="403" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q56" s="404" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R56" s="218" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S56" s="218"/>
       <c r="T56" s="320" t="s">
@@ -7649,13 +7649,13 @@
         <v>90</v>
       </c>
       <c r="Y56" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z56" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA56" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB56" s="58"/>
       <c r="AC56" s="135"/>
@@ -7680,100 +7680,100 @@
       <c r="B57" s="71"/>
       <c r="C57" s="72"/>
       <c r="D57" s="72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E57" s="72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F57" s="101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G57" s="86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H57" s="106"/>
       <c r="I57" s="184" t="s">
+        <v>96</v>
+      </c>
+      <c r="J57" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="K57" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="L57" s="184" t="s">
+        <v>96</v>
+      </c>
+      <c r="M57" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="J57" s="34" t="s">
+      <c r="N57" s="34" t="s">
         <v>97</v>
-      </c>
-      <c r="K57" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="L57" s="184" t="s">
-        <v>97</v>
-      </c>
-      <c r="M57" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="N57" s="34" t="s">
-        <v>98</v>
       </c>
       <c r="O57" s="85"/>
       <c r="P57" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q57" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="R57" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="Q57" s="50" t="s">
+      <c r="S57" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="R57" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="S57" s="58" t="s">
-        <v>98</v>
-      </c>
       <c r="T57" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U57" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V57" s="51"/>
       <c r="W57" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="X57" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y57" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="X57" s="50" t="s">
+      <c r="Z57" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="Y57" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z57" s="50" t="s">
-        <v>98</v>
-      </c>
       <c r="AA57" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB57" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC57" s="135"/>
       <c r="AD57" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE57" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF57" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG57" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH57" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI57" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ57" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" s="120"/>
       <c r="C58" s="72"/>
@@ -7797,10 +7797,10 @@
       <c r="U58" s="81"/>
       <c r="V58" s="51"/>
       <c r="W58" s="218" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X58" s="404" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y58" s="50"/>
       <c r="Z58" s="58"/>
@@ -7881,7 +7881,7 @@
         <v>91</v>
       </c>
       <c r="AI59" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ59" s="117"/>
       <c r="AK59" s="115"/>
@@ -7990,13 +7990,13 @@
         <v>78</v>
       </c>
       <c r="B61" s="459" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="460" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D61" s="460" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E61" s="136" t="s">
         <v>89</v>
@@ -8055,16 +8055,16 @@
         <v>89</v>
       </c>
       <c r="AG61" s="339" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH61" s="340" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI61" s="449" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ61" s="130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK61" s="115"/>
     </row>
@@ -8152,14 +8152,14 @@
         <v>75</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C63" s="228"/>
       <c r="D63" s="125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E63" s="125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F63" s="72"/>
       <c r="G63" s="72"/>
@@ -8169,61 +8169,61 @@
       <c r="K63" s="90"/>
       <c r="L63" s="124"/>
       <c r="M63" s="90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N63" s="86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O63" s="127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P63" s="204" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q63" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="R63" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="Q63" s="126" t="s">
+      <c r="S63" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="R63" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="S63" s="86" t="s">
-        <v>98</v>
-      </c>
       <c r="T63" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U63" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V63" s="85"/>
       <c r="W63" s="91"/>
       <c r="X63" s="228"/>
       <c r="Y63" s="228" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z63" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA63" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB63" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC63" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD63" s="188" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE63" s="86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF63" s="161" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG63" s="161" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH63" s="129"/>
       <c r="AI63" s="50"/>
@@ -8239,23 +8239,23 @@
       <c r="D64" s="245"/>
       <c r="E64" s="245"/>
       <c r="F64" s="246" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G64" s="247" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H64" s="248"/>
       <c r="I64" s="249" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J64" s="128" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K64" s="128" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L64" s="249" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M64" s="128"/>
       <c r="N64" s="249"/>
@@ -8268,22 +8268,22 @@
       <c r="U64" s="63"/>
       <c r="V64" s="64"/>
       <c r="W64" s="244" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X64" s="245" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y64" s="245" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z64" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA64" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB64" s="66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC64" s="252"/>
       <c r="AD64" s="249"/>
@@ -8336,68 +8336,68 @@
       <c r="A66" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="477" t="s">
+      <c r="B66" s="469" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="478"/>
-      <c r="D66" s="478"/>
-      <c r="E66" s="478"/>
-      <c r="F66" s="478"/>
-      <c r="G66" s="478"/>
-      <c r="H66" s="480"/>
-      <c r="I66" s="477" t="s">
+      <c r="C66" s="470"/>
+      <c r="D66" s="470"/>
+      <c r="E66" s="470"/>
+      <c r="F66" s="470"/>
+      <c r="G66" s="470"/>
+      <c r="H66" s="472"/>
+      <c r="I66" s="469" t="s">
         <v>82</v>
       </c>
-      <c r="J66" s="478"/>
-      <c r="K66" s="478"/>
-      <c r="L66" s="478"/>
-      <c r="M66" s="478"/>
-      <c r="N66" s="478"/>
-      <c r="O66" s="480"/>
-      <c r="P66" s="477" t="s">
+      <c r="J66" s="470"/>
+      <c r="K66" s="470"/>
+      <c r="L66" s="470"/>
+      <c r="M66" s="470"/>
+      <c r="N66" s="470"/>
+      <c r="O66" s="472"/>
+      <c r="P66" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="Q66" s="478"/>
-      <c r="R66" s="478"/>
-      <c r="S66" s="478"/>
-      <c r="T66" s="478"/>
-      <c r="U66" s="478"/>
-      <c r="V66" s="480"/>
-      <c r="W66" s="477" t="s">
+      <c r="Q66" s="470"/>
+      <c r="R66" s="470"/>
+      <c r="S66" s="470"/>
+      <c r="T66" s="470"/>
+      <c r="U66" s="470"/>
+      <c r="V66" s="472"/>
+      <c r="W66" s="469" t="s">
         <v>86</v>
       </c>
-      <c r="X66" s="478"/>
-      <c r="Y66" s="478"/>
-      <c r="Z66" s="478"/>
-      <c r="AA66" s="478"/>
-      <c r="AB66" s="478"/>
-      <c r="AC66" s="480"/>
-      <c r="AD66" s="477" t="s">
+      <c r="X66" s="470"/>
+      <c r="Y66" s="470"/>
+      <c r="Z66" s="470"/>
+      <c r="AA66" s="470"/>
+      <c r="AB66" s="470"/>
+      <c r="AC66" s="472"/>
+      <c r="AD66" s="469" t="s">
         <v>18</v>
       </c>
-      <c r="AE66" s="478"/>
-      <c r="AF66" s="478"/>
-      <c r="AG66" s="478"/>
-      <c r="AH66" s="478"/>
-      <c r="AI66" s="478"/>
-      <c r="AJ66" s="479"/>
+      <c r="AE66" s="470"/>
+      <c r="AF66" s="470"/>
+      <c r="AG66" s="470"/>
+      <c r="AH66" s="470"/>
+      <c r="AI66" s="470"/>
+      <c r="AJ66" s="471"/>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="O70" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AD66:AJ66"/>
-    <mergeCell ref="W66:AC66"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="I66:O66"/>
-    <mergeCell ref="P66:V66"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="AD66:AJ66"/>
+    <mergeCell ref="W66:AC66"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="I66:O66"/>
+    <mergeCell ref="P66:V66"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8497,7 +8497,7 @@
       <c r="B11" s="202"/>
       <c r="C11" s="178"/>
       <c r="D11" s="93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
